--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksssk\OneDrive\바탕 화면\code\code\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3010A4F6-3DF7-4BAA-A339-C9025850B012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242DD85A-CFFA-4DA5-A4EC-40EC1A6AE4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25E42D86-25D4-4928-8C17-C31636258090}"/>
   </bookViews>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EBDEAE-0C02-4D1E-9A34-D6E0D8FDD48A}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,42 +520,42 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
@@ -571,82 +571,82 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -656,35 +656,38 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A33">
+    <sortCondition ref="A2:A33"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
